--- a/src/javaConcepts/WriteDatatabletoExcel.xlsx
+++ b/src/javaConcepts/WriteDatatabletoExcel.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkshank\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,7 +403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/src/javaConcepts/WriteDatatabletoExcel.xlsx
+++ b/src/javaConcepts/WriteDatatabletoExcel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Company</t>
   </si>
